--- a/event study/direction/Truth.xlsx
+++ b/event study/direction/Truth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="34">
   <si>
     <t>1.01</t>
   </si>
@@ -22,6 +22,9 @@
     <t>1.02</t>
   </si>
   <si>
+    <t>1.03</t>
+  </si>
+  <si>
     <t>1.04</t>
   </si>
   <si>
@@ -31,6 +34,12 @@
     <t>2.02</t>
   </si>
   <si>
+    <t>2.02101</t>
+  </si>
+  <si>
+    <t>2.02104</t>
+  </si>
+  <si>
     <t>2.03</t>
   </si>
   <si>
@@ -70,25 +79,43 @@
     <t>5.04</t>
   </si>
   <si>
+    <t>5.05</t>
+  </si>
+  <si>
+    <t>5.06</t>
+  </si>
+  <si>
     <t>5.07</t>
   </si>
   <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>6.01</t>
+  </si>
+  <si>
     <t>7.01</t>
   </si>
   <si>
+    <t>7.01104</t>
+  </si>
+  <si>
     <t>8.01</t>
   </si>
   <si>
     <t>9.01</t>
   </si>
   <si>
+    <t>9.09</t>
+  </si>
+  <si>
     <t>zero</t>
   </si>
   <si>
+    <t>up</t>
+  </si>
+  <si>
     <t>down</t>
-  </si>
-  <si>
-    <t>up</t>
   </si>
 </sst>
 </file>
@@ -446,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,289 +546,424 @@
       <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="X2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="V3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="T4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="X5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
